--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{A8478DE8-6DE9-4228-8E21-CA8DA099AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949FAA73-7FC8-4F3A-B069-71E5B56FAFA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68ECD0-53A9-4F3C-B1BA-1879C38F4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="585" windowWidth="21600" windowHeight="12735" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="32130" yWindow="2415" windowWidth="21600" windowHeight="12735" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Category/name</t>
   </si>
@@ -114,13 +114,22 @@
   </si>
   <si>
     <t>balance (zany)</t>
+  </si>
+  <si>
+    <t>Attacks</t>
+  </si>
+  <si>
+    <t>Item-Prototype</t>
+  </si>
+  <si>
+    <t>Movement/Aim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -193,6 +202,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,12 +544,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -550,12 +560,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45.75">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -563,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48.75">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -571,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30.75">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -579,58 +589,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
-      <c r="A13" s="2" t="s">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68ECD0-53A9-4F3C-B1BA-1879C38F4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1650A6B-CC73-4448-A636-9BCF0B90C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="2415" windowWidth="21600" windowHeight="12735" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Category/name</t>
   </si>
@@ -44,6 +44,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>Prority</t>
+  </si>
+  <si>
     <t>context/detail</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>done</t>
   </si>
   <si>
+    <t>1st</t>
+  </si>
+  <si>
     <t>pyhsics+hotlineMiami</t>
   </si>
   <si>
@@ -68,34 +74,70 @@
     <t>Hotline Miami</t>
   </si>
   <si>
-    <t>the gamefeel and level design would be great exapmles</t>
+    <t>the gamefeel and level design as exapmles</t>
+  </si>
+  <si>
+    <t>Sujai</t>
   </si>
   <si>
     <t>Binding of Isaac</t>
   </si>
   <si>
-    <t>looking to see how they hadle item pickups/upgrades</t>
+    <t>want to see how they hadle item pickups/upgrades</t>
   </si>
   <si>
     <t>Hades</t>
   </si>
   <si>
-    <t>origin of the trashy 'god' gifts</t>
-  </si>
-  <si>
-    <t>Prototype:</t>
+    <t>origin of trashy 'god' gifts/boss inpiration</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Playarea</t>
+  </si>
+  <si>
+    <t>Level blockout</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Mechanics:</t>
+  </si>
+  <si>
+    <t>done in prototype</t>
   </si>
   <si>
     <t>Ragdoll/pyhsics</t>
   </si>
   <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Playarea</t>
-  </si>
-  <si>
-    <t>Level blockout</t>
+    <t>knockback</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Levels:</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Level 1</t>
   </si>
   <si>
     <t>Polish:</t>
@@ -116,20 +158,32 @@
     <t>balance (zany)</t>
   </si>
   <si>
+    <t>Level refinement</t>
+  </si>
+  <si>
     <t>Attacks</t>
   </si>
   <si>
-    <t>Item-Prototype</t>
-  </si>
-  <si>
     <t>Movement/Aim</t>
+  </si>
+  <si>
+    <t>Item-prototype</t>
+  </si>
+  <si>
+    <t>Prototype/Verticle:</t>
+  </si>
+  <si>
+    <t>Iterate based on feedback</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +198,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +224,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF3232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF49B854"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -202,13 +283,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF49B854"/>
+      <color rgb="FFBF3232"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -517,20 +606,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,120 +632,232 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1650A6B-CC73-4448-A636-9BCF0B90C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCFF60-4A6B-4BAC-8C0F-7B50549DAE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF6FCA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -286,6 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,6 +301,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCF6FCA"/>
       <color rgb="FF49B854"/>
       <color rgb="FFBF3232"/>
     </mruColors>
@@ -609,7 +617,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,8 +701,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -747,7 +755,7 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -758,7 +766,7 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -769,7 +777,7 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="6" t="s">

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFCFF60-4A6B-4BAC-8C0F-7B50549DAE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F1D1B8-33E7-4F44-846C-BF06C7AB8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Category/name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Real life room research</t>
   </si>
 </sst>
 </file>
@@ -614,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,22 +704,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>19</v>
@@ -724,7 +728,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
@@ -732,39 +736,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>27</v>
@@ -775,7 +776,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
@@ -786,85 +787,96 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F1D1B8-33E7-4F44-846C-BF06C7AB8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C06F2DB-8033-4D80-B43B-3C31EE81C928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C06F2DB-8033-4D80-B43B-3C31EE81C928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1B34D-1224-4908-900A-54B7F0D570D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Category/name</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Real life room research</t>
+  </si>
+  <si>
+    <t>test materials</t>
+  </si>
+  <si>
+    <t>test &amp; find materials for use</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,41 +848,52 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1B34D-1224-4908-900A-54B7F0D570D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D5412-D6BD-4D98-BE0C-CC71BF9E6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Category/name</t>
   </si>
@@ -186,13 +186,61 @@
   </si>
   <si>
     <t>test &amp; find materials for use</t>
+  </si>
+  <si>
+    <t>playable</t>
+  </si>
+  <si>
+    <t>rebind</t>
+  </si>
+  <si>
+    <t>hitboxes &amp; gamefeel</t>
+  </si>
+  <si>
+    <t>want hotline style controls</t>
+  </si>
+  <si>
+    <t>could use variety &amp; polish (not necessary though)</t>
+  </si>
+  <si>
+    <t>in-progress</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>Sam &amp; Chaz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">being blocked-out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ deciding on player speed</t>
+    </r>
+  </si>
+  <si>
+    <t>Orange = done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +264,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +329,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2DD1B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -288,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -302,6 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,6 +401,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2DD1B6"/>
       <color rgb="FFCF6FCA"/>
       <color rgb="FF49B854"/>
       <color rgb="FFBF3232"/>
@@ -626,14 +718,15 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -657,18 +750,21 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -728,35 +824,77 @@
       <c r="A10" t="s">
         <v>41</v>
       </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
@@ -764,8 +902,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -773,6 +911,12 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
@@ -784,6 +928,12 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
@@ -795,6 +945,12 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>27</v>
       </c>
@@ -806,24 +962,39 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -831,6 +1002,9 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="7" t="s">
         <v>25</v>
       </c>
@@ -839,6 +1013,9 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
       <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
@@ -898,6 +1075,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3D5412-D6BD-4D98-BE0C-CC71BF9E6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B50BB-8B84-4EC3-B362-EC1C7571D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="32400" yWindow="6495" windowWidth="21600" windowHeight="12735" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Category/name</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Orange = done</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
   </si>
 </sst>
 </file>
@@ -715,21 +718,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,21 +744,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -764,63 +771,63 @@
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -830,14 +837,14 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -847,14 +854,14 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -864,28 +871,28 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -895,19 +902,19 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -917,14 +924,14 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -934,14 +941,14 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -951,25 +958,25 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -977,7 +984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -985,7 +992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -993,83 +1000,83 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B50BB-8B84-4EC3-B362-EC1C7571D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0158F4B-14DB-4689-AFC1-7CC3A99F723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32400" yWindow="6495" windowWidth="21600" windowHeight="12735" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Category/name</t>
   </si>
@@ -50,12 +50,6 @@
     <t>context/detail</t>
   </si>
   <si>
-    <t>it person</t>
-  </si>
-  <si>
-    <t>Planing</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Level blockout</t>
   </si>
   <si>
-    <t>tutorial</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
@@ -134,21 +125,9 @@
     <t>Levels:</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
     <t>Polish:</t>
   </si>
   <si>
-    <t>textures/materials</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>game-feel</t>
   </si>
   <si>
@@ -203,9 +182,6 @@
     <t>could use variety &amp; polish (not necessary though)</t>
   </si>
   <si>
-    <t>in-progress</t>
-  </si>
-  <si>
     <t>2nd</t>
   </si>
   <si>
@@ -218,25 +194,58 @@
     <t>Sam &amp; Chaz</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">being blocked-out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+ deciding on player speed</t>
-    </r>
-  </si>
-  <si>
     <t>Orange = done</t>
   </si>
   <si>
     <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Prototype &amp; level blockout</t>
+  </si>
+  <si>
+    <t>Populate Level</t>
+  </si>
+  <si>
+    <t>add content to blockouts</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Level Sketchs</t>
+  </si>
+  <si>
+    <t>Tutorial Blockout</t>
+  </si>
+  <si>
+    <t>Level 1 Blockout</t>
+  </si>
+  <si>
+    <t>download textures/materials</t>
+  </si>
+  <si>
+    <t>download sounds</t>
+  </si>
+  <si>
+    <t>implement sound</t>
+  </si>
+  <si>
+    <t>apply textures/materials</t>
+  </si>
+  <si>
+    <t>in-process</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Planing:</t>
+  </si>
+  <si>
+    <t>blocked-out + decided on player speed</t>
   </si>
 </sst>
 </file>
@@ -259,23 +268,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,8 +281,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +359,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -361,16 +382,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -378,24 +399,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,19 +766,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -744,345 +794,444 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E37" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0158F4B-14DB-4689-AFC1-7CC3A99F723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CF2E7-6D71-4B7C-A3CD-C290A785C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CF2E7-6D71-4B7C-A3CD-C290A785C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C009A4-C285-41DC-A695-4C7AE96C9445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Category/name</t>
   </si>
@@ -170,9 +170,6 @@
     <t>playable</t>
   </si>
   <si>
-    <t>rebind</t>
-  </si>
-  <si>
     <t>hitboxes &amp; gamefeel</t>
   </si>
   <si>
@@ -246,6 +243,15 @@
   </si>
   <si>
     <t>blocked-out + decided on player speed</t>
+  </si>
+  <si>
+    <t>Attack Hitboxes</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>could be improved but is fine</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -444,6 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,21 +800,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -825,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -846,7 +852,7 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -860,7 +866,7 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -874,7 +880,7 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -885,13 +891,13 @@
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -923,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>17</v>
@@ -943,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>17</v>
@@ -963,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>17</v>
@@ -974,19 +980,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1016,7 @@
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1027,11 +1033,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
@@ -1044,7 +1050,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1061,172 +1067,201 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>16</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="22" t="s">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C009A4-C285-41DC-A695-4C7AE96C9445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10EE90-D6D7-40EF-80EB-139C960D5E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>Category/name</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Prototype/Verticle:</t>
   </si>
   <si>
-    <t>Iterate based on feedback</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>could be improved but is fine</t>
+  </si>
+  <si>
+    <t>player feedback: impacts, camera shake - do through sounds &amp; vfx</t>
+  </si>
+  <si>
+    <t>Iterate based on testing feedback</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +787,7 @@
     <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4"/>
     <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -800,21 +803,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -831,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,7 +889,7 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -897,7 +900,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -920,7 +923,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -929,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>17</v>
@@ -940,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -949,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>17</v>
@@ -969,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>17</v>
@@ -980,19 +983,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
@@ -1037,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
@@ -1054,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1071,10 +1074,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
@@ -1088,16 +1091,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
@@ -1105,13 +1108,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>16</v>
@@ -1125,7 +1128,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1144,13 +1147,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>22</v>
@@ -1158,16 +1161,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>22</v>
@@ -1175,16 +1178,16 @@
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -1196,10 +1199,10 @@
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>11</v>
@@ -1207,7 +1210,7 @@
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>11</v>
@@ -1215,52 +1218,61 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>

--- a/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
+++ b/Shared Documentation/Luke's Documents/Clash of Cosplayers - Plan Outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C2240950\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10EE90-D6D7-40EF-80EB-139C960D5E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82816A39-62BC-4E6B-91B4-0098AE07140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>want hotline style controls</t>
   </si>
   <si>
-    <t>could use variety &amp; polish (not necessary though)</t>
-  </si>
-  <si>
     <t>2nd</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Iterate based on testing feedback</t>
+  </si>
+  <si>
+    <t>could use variety &amp; polish (not necessary though) needs better detection range</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,21 +803,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>17</v>
@@ -983,19 +983,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
@@ -1094,13 +1094,13 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>16</v>
@@ -1128,7 +1128,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1147,13 +1147,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>22</v>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>22</v>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>11</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>11</v>
@@ -1226,18 +1226,18 @@
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>17</v>
@@ -1261,7 +1261,7 @@
         <v>38</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
